--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H2">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>21.27729372482966</v>
+        <v>41.83053813692</v>
       </c>
       <c r="R2">
-        <v>21.27729372482966</v>
+        <v>376.47484323228</v>
       </c>
       <c r="S2">
-        <v>0.0002522703615253795</v>
+        <v>0.0004756450222023231</v>
       </c>
       <c r="T2">
-        <v>0.0002522703615253795</v>
+        <v>0.0004756450222023232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H3">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>1230.922481127757</v>
+        <v>1660.964303260548</v>
       </c>
       <c r="R3">
-        <v>1230.922481127757</v>
+        <v>14948.67872934493</v>
       </c>
       <c r="S3">
-        <v>0.01459420842423428</v>
+        <v>0.01888642695237866</v>
       </c>
       <c r="T3">
-        <v>0.01459420842423428</v>
+        <v>0.01888642695237867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H4">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>231.9193822944727</v>
+        <v>4.860418718185334</v>
       </c>
       <c r="R4">
-        <v>231.9193822944727</v>
+        <v>43.743768463668</v>
       </c>
       <c r="S4">
-        <v>0.0027497099571406</v>
+        <v>5.526665618206343E-05</v>
       </c>
       <c r="T4">
-        <v>0.0027497099571406</v>
+        <v>5.526665618206343E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1096.78030226615</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H5">
-        <v>1096.78030226615</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I5">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J5">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>1184.876815751456</v>
+        <v>2.492821544621778</v>
       </c>
       <c r="R5">
-        <v>1184.876815751456</v>
+        <v>22.435393901596</v>
       </c>
       <c r="S5">
-        <v>0.01404827637096753</v>
+        <v>2.834527624428401E-05</v>
       </c>
       <c r="T5">
-        <v>0.01404827637096753</v>
+        <v>2.834527624428402E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1096.78030226615</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H6">
-        <v>1096.78030226615</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I6">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J6">
-        <v>0.9798857108749239</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>68546.85228006898</v>
+        <v>355.6976070826996</v>
       </c>
       <c r="R6">
-        <v>68546.85228006898</v>
+        <v>3201.278463744296</v>
       </c>
       <c r="S6">
-        <v>0.8127132815739808</v>
+        <v>0.004044552227953266</v>
       </c>
       <c r="T6">
-        <v>0.8127132815739808</v>
+        <v>0.004044552227953266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H7">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>12914.98358569185</v>
+        <v>1728.38878296737</v>
       </c>
       <c r="R7">
-        <v>12914.98358569185</v>
+        <v>15555.49904670633</v>
       </c>
       <c r="S7">
-        <v>0.1531241529299756</v>
+        <v>0.01965309454919895</v>
       </c>
       <c r="T7">
-        <v>0.1531241529299756</v>
+        <v>0.01965309454919895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H8">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J8">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>0.1908680817585858</v>
+        <v>68629.09727022992</v>
       </c>
       <c r="R8">
-        <v>0.1908680817585858</v>
+        <v>617661.8754320692</v>
       </c>
       <c r="S8">
-        <v>2.262992681851489E-06</v>
+        <v>0.7803650143819886</v>
       </c>
       <c r="T8">
-        <v>2.262992681851489E-06</v>
+        <v>0.7803650143819888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H9">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J9">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>11.04199696656934</v>
+        <v>200.8268018340804</v>
       </c>
       <c r="R9">
-        <v>11.04199696656934</v>
+        <v>1807.441216506723</v>
       </c>
       <c r="S9">
-        <v>0.0001309174278807814</v>
+        <v>0.002283553424642269</v>
       </c>
       <c r="T9">
-        <v>0.0001309174278807814</v>
+        <v>0.002283553424642269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.176676891320029</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H10">
-        <v>0.176676891320029</v>
+        <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J10">
-        <v>0.0001578467090342468</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.7753606251016</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N10">
-        <v>11.7753606251016</v>
+        <v>0.281423</v>
       </c>
       <c r="O10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q10">
-        <v>2.080434109415224</v>
+        <v>103.0004630005201</v>
       </c>
       <c r="R10">
-        <v>2.080434109415224</v>
+        <v>927.004167004681</v>
       </c>
       <c r="S10">
-        <v>2.466628847161394E-05</v>
+        <v>0.001171193575142929</v>
       </c>
       <c r="T10">
-        <v>2.466628847161394E-05</v>
+        <v>0.001171193575142929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.64181802869798</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H11">
-        <v>2.64181802869798</v>
+        <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.002360253673141487</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J11">
-        <v>0.002360253673141487</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.08032284433198</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N11">
-        <v>1.08032284433198</v>
+        <v>40.155898</v>
       </c>
       <c r="O11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q11">
-        <v>2.854016366970506</v>
+        <v>14697.00801356556</v>
       </c>
       <c r="R11">
-        <v>2.854016366970506</v>
+        <v>132273.07212209</v>
       </c>
       <c r="S11">
-        <v>3.383812575068278E-05</v>
+        <v>0.1671161551887898</v>
       </c>
       <c r="T11">
-        <v>3.383812575068278E-05</v>
+        <v>0.1671161551887898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.64181802869798</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H12">
-        <v>2.64181802869798</v>
+        <v>0.583051</v>
       </c>
       <c r="I12">
-        <v>0.002360253673141487</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J12">
-        <v>0.002360253673141487</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4982525109528</v>
+        <v>1.57413</v>
       </c>
       <c r="N12">
-        <v>62.4982525109528</v>
+        <v>4.72239</v>
       </c>
       <c r="O12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q12">
-        <v>165.1090102455539</v>
+        <v>0.30593269021</v>
       </c>
       <c r="R12">
-        <v>165.1090102455539</v>
+        <v>2.75339421189</v>
       </c>
       <c r="S12">
-        <v>0.001957584937464923</v>
+        <v>3.478687287049715E-06</v>
       </c>
       <c r="T12">
-        <v>0.001957584937464923</v>
+        <v>3.478687287049716E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.583051</v>
+      </c>
+      <c r="I13">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J13">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.503947</v>
+      </c>
+      <c r="N13">
+        <v>187.511841</v>
+      </c>
+      <c r="O13">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P13">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q13">
+        <v>12.147662934099</v>
+      </c>
+      <c r="R13">
+        <v>109.328966406891</v>
+      </c>
+      <c r="S13">
+        <v>0.0001381281633787102</v>
+      </c>
+      <c r="T13">
+        <v>0.0001381281633787103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.583051</v>
+      </c>
+      <c r="I14">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J14">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.182903</v>
+      </c>
+      <c r="N14">
+        <v>0.548709</v>
+      </c>
+      <c r="O14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q14">
+        <v>0.03554725901766666</v>
+      </c>
+      <c r="R14">
+        <v>0.319925331159</v>
+      </c>
+      <c r="S14">
+        <v>4.041993614652246E-07</v>
+      </c>
+      <c r="T14">
+        <v>4.041993614652247E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.583051</v>
+      </c>
+      <c r="I15">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J15">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.281423</v>
+      </c>
+      <c r="O15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q15">
+        <v>0.01823155128588889</v>
+      </c>
+      <c r="R15">
+        <v>0.164083961573</v>
+      </c>
+      <c r="S15">
+        <v>2.073065994937716E-07</v>
+      </c>
+      <c r="T15">
+        <v>2.073065994937717E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1943503333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.583051</v>
+      </c>
+      <c r="I16">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="J16">
+        <v>0.0001717986775812918</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N16">
+        <v>40.155898</v>
+      </c>
+      <c r="O16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q16">
+        <v>2.601437387199778</v>
+      </c>
+      <c r="R16">
+        <v>23.412936484798</v>
+      </c>
+      <c r="S16">
+        <v>2.958032095457281E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.958032095457282E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="H13">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="I13">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="J13">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="N13">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="O13">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="P13">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="Q13">
-        <v>31.10835999381372</v>
-      </c>
-      <c r="R13">
-        <v>31.10835999381372</v>
-      </c>
-      <c r="S13">
-        <v>0.0003688306099258808</v>
-      </c>
-      <c r="T13">
-        <v>0.0003688306099258808</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.227118</v>
+      </c>
+      <c r="I17">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J17">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>0.64388108578</v>
+      </c>
+      <c r="R17">
+        <v>5.794929772020001</v>
+      </c>
+      <c r="S17">
+        <v>7.321417485451312E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.321417485451314E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.227118</v>
+      </c>
+      <c r="I18">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J18">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>25.566572811582</v>
+      </c>
+      <c r="R18">
+        <v>230.099155304238</v>
+      </c>
+      <c r="S18">
+        <v>0.0002907113710275022</v>
+      </c>
+      <c r="T18">
+        <v>0.0002907113710275023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.227118</v>
+      </c>
+      <c r="I19">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J19">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>0.07481452118466668</v>
+      </c>
+      <c r="R19">
+        <v>0.6733306906620001</v>
+      </c>
+      <c r="S19">
+        <v>8.506979870414142E-07</v>
+      </c>
+      <c r="T19">
+        <v>8.506979870414145E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.227118</v>
+      </c>
+      <c r="I20">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J20">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>0.03837102543488889</v>
+      </c>
+      <c r="R20">
+        <v>0.345339228914</v>
+      </c>
+      <c r="S20">
+        <v>4.363077325269968E-07</v>
+      </c>
+      <c r="T20">
+        <v>4.36307732526997E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.227118</v>
+      </c>
+      <c r="I21">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J21">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>5.475113915773779</v>
+      </c>
+      <c r="R21">
+        <v>49.27602524196401</v>
+      </c>
+      <c r="S21">
+        <v>6.225620792886639E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.225620792886641E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.094568</v>
+      </c>
+      <c r="H22">
+        <v>18.283704</v>
+      </c>
+      <c r="I22">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J22">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>9.593642325839999</v>
+      </c>
+      <c r="R22">
+        <v>86.34278093256</v>
+      </c>
+      <c r="S22">
+        <v>0.0001090870072514755</v>
+      </c>
+      <c r="T22">
+        <v>0.0001090870072514755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.094568</v>
+      </c>
+      <c r="H23">
+        <v>18.283704</v>
+      </c>
+      <c r="I23">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J23">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>380.934555259896</v>
+      </c>
+      <c r="R23">
+        <v>3428.410997339064</v>
+      </c>
+      <c r="S23">
+        <v>0.004331515516275554</v>
+      </c>
+      <c r="T23">
+        <v>0.004331515516275555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.094568</v>
+      </c>
+      <c r="H24">
+        <v>18.283704</v>
+      </c>
+      <c r="I24">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J24">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>1.114714770904</v>
+      </c>
+      <c r="R24">
+        <v>10.032432938136</v>
+      </c>
+      <c r="S24">
+        <v>1.267515445821922E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.267515445821922E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.094568</v>
+      </c>
+      <c r="H25">
+        <v>18.283704</v>
+      </c>
+      <c r="I25">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J25">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>0.5717172034213333</v>
+      </c>
+      <c r="R25">
+        <v>5.145454830792</v>
+      </c>
+      <c r="S25">
+        <v>6.500859277131279E-06</v>
+      </c>
+      <c r="T25">
+        <v>6.500859277131281E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.094568</v>
+      </c>
+      <c r="H26">
+        <v>18.283704</v>
+      </c>
+      <c r="I26">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J26">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>81.57761698735467</v>
+      </c>
+      <c r="R26">
+        <v>734.198552886192</v>
+      </c>
+      <c r="S26">
+        <v>0.0009275995282718092</v>
+      </c>
+      <c r="T26">
+        <v>0.0009275995282718094</v>
       </c>
     </row>
   </sheetData>
